--- a/biology/Botanique/Cyathe_stercoraire/Cyathe_stercoraire.xlsx
+++ b/biology/Botanique/Cyathe_stercoraire/Cyathe_stercoraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathus stercoreus
-Le Cyathe stercoraire, (Cyathus stercoreus) est une espèce de champignons agaricomycètes saprophytes du genre Cyathus et de la famille des Agaricaceae ou des Nidulariaceae selon les classifications[1].
+Le Cyathe stercoraire, (Cyathus stercoreus) est une espèce de champignons agaricomycètes saprophytes du genre Cyathus et de la famille des Agaricaceae ou des Nidulariaceae selon les classifications.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cyathus stercoreus (Schwein.) De Toni[2].
-L'espèce a été initialement classée dans le genre Nidularia sous le basionyme Nidularia stercorea Schwein.[2].
-Cyathus stercoreus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cyathus stercoreus (Schwein.) De Toni.
+L'espèce a été initialement classée dans le genre Nidularia sous le basionyme Nidularia stercorea Schwein..
+Cyathus stercoreus a pour synonymes :
 Cyathia stercorea (Schwein.) V.S.White
 Cyathodes lesueurii (Tul. &amp; C.Tul.) Kuntze
 Cyathodes stercoreum (Schwein.) Kuntze
